--- a/RMI/RMI/media/Reporte/REPORTE_FEBRERO_NELSON_PINO.xlsx
+++ b/RMI/RMI/media/Reporte/REPORTE_FEBRERO_NELSON_PINO.xlsx
@@ -1445,63 +1445,29 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1512,147 +1478,6 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="29" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1701,27 +1526,202 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="29" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2161,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AK1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q48" sqref="Q48"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2185,34 +2185,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:37" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="131" t="s">
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="132"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="1"/>
@@ -2228,38 +2228,38 @@
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="167"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="74" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75" t="s">
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75" t="s">
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75" t="s">
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="75"/>
+      <c r="X3" s="169"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="2"/>
@@ -2275,36 +2275,36 @@
       <c r="AK3" s="1"/>
     </row>
     <row r="4" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="167"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="76" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="77" t="s">
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="152" t="s">
+      <c r="P4" s="172"/>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="172"/>
+      <c r="S4" s="172"/>
+      <c r="T4" s="172"/>
+      <c r="U4" s="172"/>
+      <c r="V4" s="173"/>
+      <c r="W4" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="153"/>
+      <c r="X4" s="82"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="2"/>
@@ -2320,36 +2320,36 @@
       <c r="AK4" s="1"/>
     </row>
     <row r="5" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="167"/>
-      <c r="B5" s="73" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75" t="s">
+      <c r="C5" s="167"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="80" t="s">
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="154"/>
-      <c r="X5" s="155"/>
+      <c r="P5" s="174"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="174"/>
+      <c r="S5" s="174"/>
+      <c r="T5" s="174"/>
+      <c r="U5" s="174"/>
+      <c r="V5" s="174"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="84"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="2"/>
@@ -2365,34 +2365,34 @@
       <c r="AK5" s="1"/>
     </row>
     <row r="6" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="167"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="76">
+      <c r="A6" s="96"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="170">
         <v>76307422</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76">
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="170">
         <v>3155634116</v>
       </c>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="156"/>
-      <c r="X6" s="157"/>
+      <c r="P6" s="170"/>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="170"/>
+      <c r="S6" s="170"/>
+      <c r="T6" s="170"/>
+      <c r="U6" s="170"/>
+      <c r="V6" s="170"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="86"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="2"/>
@@ -2408,30 +2408,30 @@
       <c r="AK6" s="1"/>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="167"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="160"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="89"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -2461,15 +2461,15 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
-      <c r="R8" s="151"/>
-      <c r="S8" s="151"/>
-      <c r="T8" s="151"/>
-      <c r="U8" s="151"/>
-      <c r="V8" s="151"/>
-      <c r="W8" s="151"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="139"/>
+      <c r="U8" s="139"/>
+      <c r="V8" s="139"/>
+      <c r="W8" s="139"/>
       <c r="X8" s="18"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -2486,32 +2486,32 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="162"/>
-      <c r="Q9" s="162"/>
-      <c r="R9" s="162"/>
-      <c r="S9" s="162"/>
-      <c r="T9" s="162"/>
-      <c r="U9" s="162"/>
-      <c r="V9" s="162"/>
-      <c r="W9" s="162"/>
-      <c r="X9" s="163"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="92"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -2527,56 +2527,56 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="169" t="s">
+      <c r="D10" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="103" t="s">
+      <c r="H10" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
       <c r="N10" s="19"/>
-      <c r="O10" s="85" t="s">
+      <c r="O10" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="87" t="s">
+      <c r="P10" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="87" t="s">
+      <c r="Q10" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="107" t="s">
+      <c r="R10" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="134" t="s">
+      <c r="S10" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="135"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="117"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -2592,13 +2592,13 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="165"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
       <c r="H11" s="47" t="s">
         <v>13</v>
       </c>
@@ -2620,16 +2620,16 @@
       <c r="N11" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="139"/>
-      <c r="P11" s="149"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="139"/>
-      <c r="S11" s="136"/>
-      <c r="T11" s="137"/>
-      <c r="U11" s="137"/>
-      <c r="V11" s="137"/>
-      <c r="W11" s="137"/>
-      <c r="X11" s="138"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="118"/>
+      <c r="T11" s="119"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="119"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="120"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
@@ -2696,62 +2696,62 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="89">
+      <c r="A13" s="77">
         <v>1134730</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="92">
+      <c r="D13" s="80">
         <v>60</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="171">
+      <c r="G13" s="74">
         <v>20</v>
       </c>
-      <c r="H13" s="168" t="s">
+      <c r="H13" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="168"/>
-      <c r="J13" s="168" t="s">
+      <c r="I13" s="71"/>
+      <c r="J13" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="168"/>
-      <c r="L13" s="168" t="s">
+      <c r="K13" s="71"/>
+      <c r="L13" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="168"/>
-      <c r="N13" s="168"/>
-      <c r="O13" s="171" t="s">
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="110">
+      <c r="P13" s="68">
         <v>24</v>
       </c>
-      <c r="Q13" s="110">
+      <c r="Q13" s="68">
         <f>13*6</f>
         <v>78</v>
       </c>
-      <c r="R13" s="110">
+      <c r="R13" s="68">
         <v>102</v>
       </c>
       <c r="S13" s="30"/>
       <c r="T13" s="31"/>
-      <c r="U13" s="174">
+      <c r="U13" s="66">
         <v>1</v>
       </c>
       <c r="V13" s="31">
         <v>2</v>
       </c>
-      <c r="W13" s="174">
+      <c r="W13" s="66">
         <v>3</v>
       </c>
       <c r="X13" s="32">
@@ -2772,45 +2772,45 @@
       <c r="AK13" s="4"/>
     </row>
     <row r="14" spans="1:37" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="90"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="111"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
       <c r="S14" s="65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T14" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U14" s="53">
         <f t="shared" ref="U14:X14" si="0">+T14+1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V14" s="33">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W14" s="53">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X14" s="34">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
@@ -2827,47 +2827,46 @@
       <c r="AK14" s="4"/>
     </row>
     <row r="15" spans="1:37" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="90"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="111"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
       <c r="S15" s="65">
-        <f t="shared" ref="S15:S17" si="1">+X14+2</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T15" s="33">
-        <f t="shared" ref="T15:X15" si="2">+S15+1</f>
-        <v>13</v>
+        <f t="shared" ref="T15:X15" si="1">+S15+1</f>
+        <v>14</v>
       </c>
       <c r="U15" s="53">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="V15" s="33">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="W15" s="53">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="X15" s="34">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
@@ -2884,47 +2883,47 @@
       <c r="AK15" s="4"/>
     </row>
     <row r="16" spans="1:37" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="90"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="111"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="111"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
       <c r="S16" s="49">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" ref="S15:S17" si="2">+X15+2</f>
+        <v>20</v>
       </c>
       <c r="T16" s="38">
         <f t="shared" ref="T16:X16" si="3">+S16+1</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U16" s="50">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V16" s="38">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W16" s="50">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X16" s="60">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
@@ -2941,33 +2940,33 @@
       <c r="AK16" s="4"/>
     </row>
     <row r="17" spans="1:37" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="112"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
       <c r="S17" s="51">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="T17" s="40">
         <f>+S17+1</f>
-        <v>27</v>
+        <v>28</v>
       </c>
-      <c r="U17" s="175">
+      <c r="U17" s="67">
         <v>28</v>
       </c>
       <c r="V17" s="41"/>
@@ -2988,46 +2987,46 @@
       <c r="AK17" s="4"/>
     </row>
     <row r="18" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="89">
+      <c r="A18" s="77">
         <v>1355466</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="92">
+      <c r="D18" s="80">
         <v>80</v>
       </c>
       <c r="E18" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="98" t="s">
+      <c r="F18" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="171">
+      <c r="G18" s="74">
         <v>31</v>
       </c>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168" t="s">
+      <c r="H18" s="71"/>
+      <c r="I18" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="168"/>
-      <c r="K18" s="168"/>
-      <c r="L18" s="168"/>
-      <c r="M18" s="168"/>
-      <c r="N18" s="168"/>
-      <c r="O18" s="171" t="s">
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="P18" s="168">
+      <c r="P18" s="71">
         <v>0</v>
       </c>
-      <c r="Q18" s="110">
+      <c r="Q18" s="68">
         <v>24</v>
       </c>
-      <c r="R18" s="168">
+      <c r="R18" s="71">
         <v>24</v>
       </c>
       <c r="S18" s="30"/>
@@ -3059,45 +3058,45 @@
       <c r="AK18" s="4"/>
     </row>
     <row r="19" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="90"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="177"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="93"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="72"/>
       <c r="S19" s="58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T19" s="53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U19" s="59">
         <f t="shared" ref="U19:U21" si="4">+T19+1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V19" s="33">
         <f t="shared" ref="V19:V21" si="5">+U19+1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W19" s="59">
         <f t="shared" ref="W19:W21" si="6">+V19+1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X19" s="34">
         <f t="shared" ref="X19:X21" si="7">+W19+1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
@@ -3114,47 +3113,47 @@
       <c r="AK19" s="4"/>
     </row>
     <row r="20" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="90"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
       <c r="E20" s="177"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="93"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="72"/>
       <c r="S20" s="58">
         <f t="shared" ref="S20:S22" si="8">+X19+2</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T20" s="53">
         <f t="shared" ref="T20:T21" si="9">+S20+1</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U20" s="59">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V20" s="33">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W20" s="59">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X20" s="34">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
@@ -3171,47 +3170,47 @@
       <c r="AK20" s="4"/>
     </row>
     <row r="21" spans="1:37" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="177"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="93"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="72"/>
       <c r="S21" s="37">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T21" s="50">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U21" s="38">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V21" s="38">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W21" s="38">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X21" s="60">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
@@ -3228,31 +3227,31 @@
       <c r="AK21" s="4"/>
     </row>
     <row r="22" spans="1:37" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="178"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="94"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="73"/>
       <c r="S22" s="39">
         <f t="shared" si="8"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T22" s="52">
         <f>+S22+1</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U22" s="41">
         <v>28</v>
@@ -3275,47 +3274,47 @@
       <c r="AK22" s="4"/>
     </row>
     <row r="23" spans="1:37" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="89">
+      <c r="A23" s="77">
         <v>1025723</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="92">
+      <c r="D23" s="80">
         <v>60</v>
       </c>
-      <c r="E23" s="92" t="s">
+      <c r="E23" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="171" t="s">
+      <c r="F23" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="171">
+      <c r="G23" s="74">
         <v>15</v>
       </c>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168" t="s">
+      <c r="H23" s="71"/>
+      <c r="I23" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="168"/>
-      <c r="K23" s="168"/>
-      <c r="L23" s="168"/>
-      <c r="M23" s="168"/>
-      <c r="N23" s="168"/>
-      <c r="O23" s="171" t="s">
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="P23" s="110">
+      <c r="P23" s="68">
         <v>6</v>
       </c>
-      <c r="Q23" s="110">
+      <c r="Q23" s="68">
         <f>3.5*4</f>
         <v>14</v>
       </c>
-      <c r="R23" s="110">
+      <c r="R23" s="68">
         <v>20</v>
       </c>
       <c r="S23" s="30"/>
@@ -3347,45 +3346,45 @@
       <c r="AK23" s="4"/>
     </row>
     <row r="24" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="90"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="111"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
       <c r="S24" s="58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T24" s="53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U24" s="59">
         <f t="shared" ref="U24:U26" si="10">+T24+1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V24" s="33">
         <f t="shared" ref="V24:V26" si="11">+U24+1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W24" s="59">
         <f t="shared" ref="W24:W26" si="12">+V24+1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X24" s="34">
         <f t="shared" ref="X24:X26" si="13">+W24+1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
@@ -3402,47 +3401,47 @@
       <c r="AK24" s="4"/>
     </row>
     <row r="25" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="90"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="111"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
       <c r="S25" s="58">
         <f t="shared" ref="S25:S27" si="14">+X24+2</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T25" s="53">
         <f t="shared" ref="T25:T26" si="15">+S25+1</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U25" s="59">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V25" s="33">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W25" s="59">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X25" s="34">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
@@ -3459,47 +3458,47 @@
       <c r="AK25" s="4"/>
     </row>
     <row r="26" spans="1:37" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="90"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="111"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
       <c r="S26" s="37">
-        <f t="shared" si="14"/>
-        <v>19</v>
+        <f>+X25+2</f>
+        <v>20</v>
       </c>
       <c r="T26" s="50">
         <f t="shared" si="15"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U26" s="38">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V26" s="38">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W26" s="38">
         <f t="shared" si="12"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X26" s="60">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
@@ -3516,31 +3515,31 @@
       <c r="AK26" s="4"/>
     </row>
     <row r="27" spans="1:37" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
       <c r="S27" s="39">
         <f t="shared" si="14"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T27" s="52">
         <f>+S27+1</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U27" s="41">
         <v>28</v>
@@ -3570,25 +3569,25 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="147"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="133"/>
       <c r="P28" s="36"/>
       <c r="Q28" s="42">
         <f>SUM(Q13:Q27)</f>
         <v>116</v>
       </c>
-      <c r="R28" s="144"/>
-      <c r="S28" s="145"/>
-      <c r="T28" s="145"/>
-      <c r="U28" s="145"/>
-      <c r="V28" s="145"/>
-      <c r="W28" s="145"/>
+      <c r="R28" s="130"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="131"/>
+      <c r="U28" s="131"/>
+      <c r="V28" s="131"/>
+      <c r="W28" s="131"/>
       <c r="X28" s="29"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
@@ -3605,31 +3604,31 @@
       <c r="AK28" s="8"/>
     </row>
     <row r="29" spans="1:37" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="67"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="164"/>
+      <c r="M29" s="164"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="164"/>
+      <c r="P29" s="164"/>
+      <c r="Q29" s="165"/>
+      <c r="R29" s="164"/>
+      <c r="S29" s="164"/>
+      <c r="T29" s="164"/>
+      <c r="U29" s="164"/>
+      <c r="V29" s="164"/>
+      <c r="W29" s="164"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
@@ -3646,48 +3645,48 @@
       <c r="AK29" s="8"/>
     </row>
     <row r="30" spans="1:37" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="127" t="s">
+      <c r="A30" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="103" t="s">
+      <c r="B30" s="160"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="104"/>
-      <c r="G30" s="107" t="s">
+      <c r="F30" s="142"/>
+      <c r="G30" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="103" t="s">
+      <c r="H30" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="108"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
       <c r="N30" s="19"/>
-      <c r="O30" s="85" t="s">
+      <c r="O30" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="P30" s="87" t="s">
+      <c r="P30" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="Q30" s="87" t="s">
+      <c r="Q30" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="R30" s="107" t="s">
+      <c r="R30" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="S30" s="103" t="s">
+      <c r="S30" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="T30" s="108"/>
-      <c r="U30" s="108"/>
-      <c r="V30" s="108"/>
-      <c r="W30" s="108"/>
-      <c r="X30" s="108"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
@@ -3703,13 +3702,13 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="129"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="86"/>
+      <c r="A31" s="161"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
       <c r="H31" s="46" t="s">
         <v>13</v>
       </c>
@@ -3731,10 +3730,10 @@
       <c r="N31" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="O31" s="86"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="86"/>
+      <c r="O31" s="145"/>
+      <c r="P31" s="175"/>
+      <c r="Q31" s="140"/>
+      <c r="R31" s="145"/>
       <c r="S31" s="46" t="s">
         <v>13</v>
       </c>
@@ -3768,47 +3767,47 @@
       <c r="AK31" s="1"/>
     </row>
     <row r="32" spans="1:37" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="117" t="s">
+      <c r="B32" s="152"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="151" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="118"/>
-      <c r="G32" s="69" t="s">
+      <c r="F32" s="152"/>
+      <c r="G32" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="84" t="s">
+      <c r="H32" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="I32" s="84" t="s">
+      <c r="I32" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="J32" s="84" t="s">
+      <c r="J32" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="81" t="s">
+      <c r="K32" s="109"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="P32" s="109">
+      <c r="P32" s="146">
         <v>42767</v>
       </c>
-      <c r="Q32" s="109">
+      <c r="Q32" s="146">
         <v>42794</v>
       </c>
-      <c r="R32" s="110">
+      <c r="R32" s="68">
         <v>42</v>
       </c>
       <c r="S32" s="30"/>
       <c r="T32" s="31"/>
-      <c r="U32" s="174">
+      <c r="U32" s="66">
         <v>1</v>
       </c>
       <c r="V32" s="31">
@@ -3835,24 +3834,24 @@
       <c r="AK32" s="56"/>
     </row>
     <row r="33" spans="1:37" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="120"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="111"/>
+      <c r="A33" s="154"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="69"/>
       <c r="S33" s="65">
         <v>5</v>
       </c>
@@ -3890,24 +3889,24 @@
       <c r="AK33" s="56"/>
     </row>
     <row r="34" spans="1:37" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="120"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
-      <c r="R34" s="111"/>
+      <c r="A34" s="154"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="69"/>
       <c r="S34" s="65">
         <f t="shared" ref="S34:S36" si="20">+X33+2</f>
         <v>12</v>
@@ -3947,24 +3946,24 @@
       <c r="AK34" s="56"/>
     </row>
     <row r="35" spans="1:37" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="120"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="93"/>
-      <c r="R35" s="111"/>
+      <c r="A35" s="154"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="69"/>
       <c r="S35" s="49">
         <f t="shared" si="20"/>
         <v>19</v>
@@ -4004,24 +4003,24 @@
       <c r="AK35" s="56"/>
     </row>
     <row r="36" spans="1:37" s="54" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="120"/>
-      <c r="B36" s="123"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="112"/>
+      <c r="A36" s="154"/>
+      <c r="B36" s="157"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="107"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="107"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="70"/>
       <c r="S36" s="51">
         <f t="shared" si="20"/>
         <v>26</v>
@@ -4030,7 +4029,7 @@
         <f>+S36+1</f>
         <v>27</v>
       </c>
-      <c r="U36" s="175">
+      <c r="U36" s="67">
         <v>28</v>
       </c>
       <c r="V36" s="41"/>
@@ -4051,28 +4050,28 @@
       <c r="AK36" s="56"/>
     </row>
     <row r="37" spans="1:37" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="124"/>
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="69" t="s">
+      <c r="A37" s="121"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="141"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="81" t="s">
+      <c r="H37" s="127"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="109"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="109"/>
+      <c r="N37" s="109"/>
+      <c r="O37" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="P37" s="133"/>
-      <c r="Q37" s="133"/>
-      <c r="R37" s="110"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="68"/>
       <c r="S37" s="61">
         <v>2</v>
       </c>
@@ -4106,24 +4105,24 @@
       <c r="AK37" s="56"/>
     </row>
     <row r="38" spans="1:37" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="125"/>
-      <c r="B38" s="126"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="142"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="111"/>
+      <c r="A38" s="123"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="106"/>
+      <c r="M38" s="106"/>
+      <c r="N38" s="106"/>
+      <c r="O38" s="106"/>
+      <c r="P38" s="106"/>
+      <c r="Q38" s="106"/>
+      <c r="R38" s="69"/>
       <c r="S38" s="58">
         <v>9</v>
       </c>
@@ -4157,24 +4156,24 @@
       <c r="AK38" s="56"/>
     </row>
     <row r="39" spans="1:37" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="125"/>
-      <c r="B39" s="126"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="111"/>
+      <c r="A39" s="123"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="106"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="106"/>
+      <c r="O39" s="106"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="106"/>
+      <c r="R39" s="69"/>
       <c r="S39" s="58">
         <v>16</v>
       </c>
@@ -4208,24 +4207,24 @@
       <c r="AK39" s="56"/>
     </row>
     <row r="40" spans="1:37" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="125"/>
-      <c r="B40" s="126"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="111"/>
+      <c r="A40" s="123"/>
+      <c r="B40" s="158"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="106"/>
+      <c r="M40" s="106"/>
+      <c r="N40" s="106"/>
+      <c r="O40" s="106"/>
+      <c r="P40" s="106"/>
+      <c r="Q40" s="106"/>
+      <c r="R40" s="69"/>
       <c r="S40" s="37">
         <v>23</v>
       </c>
@@ -4259,24 +4258,24 @@
       <c r="AK40" s="56"/>
     </row>
     <row r="41" spans="1:37" s="54" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="125"/>
-      <c r="B41" s="125"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="112"/>
+      <c r="A41" s="123"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="107"/>
+      <c r="N41" s="107"/>
+      <c r="O41" s="107"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="70"/>
       <c r="S41" s="39">
         <v>30</v>
       </c>
@@ -4302,34 +4301,34 @@
       <c r="AK41" s="56"/>
     </row>
     <row r="42" spans="1:37" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="113"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="114" t="s">
+      <c r="A42" s="147"/>
+      <c r="B42" s="147"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="I42" s="115"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="115"/>
-      <c r="L42" s="115"/>
-      <c r="M42" s="115"/>
-      <c r="N42" s="115"/>
-      <c r="O42" s="115"/>
-      <c r="P42" s="116"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
+      <c r="N42" s="149"/>
+      <c r="O42" s="149"/>
+      <c r="P42" s="150"/>
       <c r="Q42" s="45">
         <f>SUM(R32:R41)</f>
         <v>42</v>
       </c>
-      <c r="R42" s="102"/>
-      <c r="S42" s="102"/>
-      <c r="T42" s="102"/>
-      <c r="U42" s="102"/>
-      <c r="V42" s="102"/>
-      <c r="W42" s="102"/>
+      <c r="R42" s="141"/>
+      <c r="S42" s="141"/>
+      <c r="T42" s="141"/>
+      <c r="U42" s="141"/>
+      <c r="V42" s="141"/>
+      <c r="W42" s="141"/>
       <c r="X42" s="43"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
@@ -26404,110 +26403,6 @@
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="O13:O17"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="M13:M17"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="L13:L17"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="M23:M27"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="O18:O22"/>
-    <mergeCell ref="P18:P22"/>
-    <mergeCell ref="Q18:Q22"/>
-    <mergeCell ref="R18:R22"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="I18:I22"/>
-    <mergeCell ref="J18:J22"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="L18:L22"/>
-    <mergeCell ref="M18:M22"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="W4:X6"/>
-    <mergeCell ref="G7:X7"/>
-    <mergeCell ref="A9:X9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="R13:R17"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="D2:X2"/>
-    <mergeCell ref="R37:R41"/>
-    <mergeCell ref="Q37:Q41"/>
-    <mergeCell ref="O37:O41"/>
-    <mergeCell ref="P37:P41"/>
-    <mergeCell ref="M37:M41"/>
-    <mergeCell ref="N37:N41"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="S10:X11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E37:F41"/>
-    <mergeCell ref="G37:G41"/>
-    <mergeCell ref="K37:K41"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="J37:J41"/>
-    <mergeCell ref="H37:H41"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O8:W8"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="K32:K36"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="M32:M36"/>
-    <mergeCell ref="R42:W42"/>
-    <mergeCell ref="L37:L41"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="Q32:Q36"/>
-    <mergeCell ref="R32:R36"/>
-    <mergeCell ref="L32:L36"/>
-    <mergeCell ref="P32:P36"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="H42:P42"/>
-    <mergeCell ref="A32:D36"/>
-    <mergeCell ref="E32:F36"/>
-    <mergeCell ref="A37:D41"/>
-    <mergeCell ref="A30:D31"/>
     <mergeCell ref="A29:W29"/>
     <mergeCell ref="G32:G36"/>
     <mergeCell ref="B2:C4"/>
@@ -26532,6 +26427,110 @@
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="F18:F22"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="M32:M36"/>
+    <mergeCell ref="R42:W42"/>
+    <mergeCell ref="L37:L41"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="Q32:Q36"/>
+    <mergeCell ref="R32:R36"/>
+    <mergeCell ref="L32:L36"/>
+    <mergeCell ref="P32:P36"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="H42:P42"/>
+    <mergeCell ref="A32:D36"/>
+    <mergeCell ref="E32:F36"/>
+    <mergeCell ref="A37:D41"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="R37:R41"/>
+    <mergeCell ref="Q37:Q41"/>
+    <mergeCell ref="O37:O41"/>
+    <mergeCell ref="P37:P41"/>
+    <mergeCell ref="M37:M41"/>
+    <mergeCell ref="N37:N41"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="S10:X11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E37:F41"/>
+    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="K37:K41"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="J37:J41"/>
+    <mergeCell ref="H37:H41"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="W4:X6"/>
+    <mergeCell ref="G7:X7"/>
+    <mergeCell ref="A9:X9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="R13:R17"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="D2:X2"/>
+    <mergeCell ref="O8:W8"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="L18:L22"/>
+    <mergeCell ref="M18:M22"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="M13:M17"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="O18:O22"/>
+    <mergeCell ref="P18:P22"/>
+    <mergeCell ref="Q18:Q22"/>
+    <mergeCell ref="R18:R22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O32:O41">
